--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahaj/Desktop/dev/schulichHacks/trash-report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54140EAD-9AB6-4941-B8DB-889A38A011D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338C66C-A0C5-3440-A8EB-1A9B81293EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1520" windowWidth="28040" windowHeight="16000" xr2:uid="{2FBD4646-BD16-424E-9C21-B79FA3436A18}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{2FBD4646-BD16-424E-9C21-B79FA3436A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
